--- a/Descargas/R15_Corte De Apelaciones De San Miguel_Términos Corte_2020-Diciembre.xlsx
+++ b/Descargas/R15_Corte De Apelaciones De San Miguel_Términos Corte_2020-Diciembre.xlsx
@@ -261,7 +261,7 @@
         </is>
       </c>
       <c r="B6" s="65">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -291,7 +291,7 @@
         </is>
       </c>
       <c r="B9" s="65">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10">
